--- a/src/test/resources/testfiles/upload/Product_Prices.xlsx
+++ b/src/test/resources/testfiles/upload/Product_Prices.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0210D2B4-2C08-4A3B-8535-7BB6F1C78C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D0A5F956-CF66-49F0-90E0-711E14567AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
   <si>
     <t>Product Reference No</t>
   </si>
@@ -186,6 +187,126 @@
   </si>
   <si>
     <t>Account KK-009</t>
+  </si>
+  <si>
+    <t>Prod Ref No KK-010</t>
+  </si>
+  <si>
+    <t>Country KK-010</t>
+  </si>
+  <si>
+    <t>Account KK-010</t>
+  </si>
+  <si>
+    <t>Supplier KK-010</t>
+  </si>
+  <si>
+    <t>Contract_id KK-010</t>
+  </si>
+  <si>
+    <t>Prod Ref No KK-011</t>
+  </si>
+  <si>
+    <t>Country KK-011</t>
+  </si>
+  <si>
+    <t>Account KK-011</t>
+  </si>
+  <si>
+    <t>Supplier KK-011</t>
+  </si>
+  <si>
+    <t>Contract_id KK-011</t>
+  </si>
+  <si>
+    <t>Prod Ref No KK-012</t>
+  </si>
+  <si>
+    <t>Country KK-012</t>
+  </si>
+  <si>
+    <t>Account KK-012</t>
+  </si>
+  <si>
+    <t>Supplier KK-012</t>
+  </si>
+  <si>
+    <t>Contract_id KK-012</t>
+  </si>
+  <si>
+    <t>Prod Ref No KK-013</t>
+  </si>
+  <si>
+    <t>Country KK-013</t>
+  </si>
+  <si>
+    <t>Account KK-013</t>
+  </si>
+  <si>
+    <t>Supplier KK-013</t>
+  </si>
+  <si>
+    <t>Contract_id KK-013</t>
+  </si>
+  <si>
+    <t>Prod Ref No KK-014</t>
+  </si>
+  <si>
+    <t>Country KK-014</t>
+  </si>
+  <si>
+    <t>Account KK-014</t>
+  </si>
+  <si>
+    <t>Supplier KK-014</t>
+  </si>
+  <si>
+    <t>Contract_id KK-014</t>
+  </si>
+  <si>
+    <t>Prod Ref No KK-015</t>
+  </si>
+  <si>
+    <t>Country KK-015</t>
+  </si>
+  <si>
+    <t>Account KK-015</t>
+  </si>
+  <si>
+    <t>Supplier KK-015</t>
+  </si>
+  <si>
+    <t>Contract_id KK-015</t>
+  </si>
+  <si>
+    <t>Prod Ref No KK-016</t>
+  </si>
+  <si>
+    <t>Country KK-016</t>
+  </si>
+  <si>
+    <t>Account KK-016</t>
+  </si>
+  <si>
+    <t>Supplier KK-016</t>
+  </si>
+  <si>
+    <t>Contract_id KK-016</t>
+  </si>
+  <si>
+    <t>Prod Ref No KK-017</t>
+  </si>
+  <si>
+    <t>Country KK-017</t>
+  </si>
+  <si>
+    <t>Account KK-017</t>
+  </si>
+  <si>
+    <t>Supplier KK-017</t>
+  </si>
+  <si>
+    <t>Contract_id KK-017</t>
   </si>
 </sst>
 </file>
@@ -612,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:K501"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,6 +1094,286 @@
         <v>18</v>
       </c>
       <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
         <v>9</v>
       </c>
     </row>
